--- a/04DataViz/A2c/Viz/00GlobalWarmingTemp/GlobalWarmingAbove20thCentury.xlsx
+++ b/04DataViz/A2c/Viz/00GlobalWarmingTemp/GlobalWarmingAbove20thCentury.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIML\04DataViz\A2c\Viz\01GlobalWarmingTemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIML\04DataViz\A2c\Viz\00GlobalWarmingTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E67D6-6C40-4AF4-B4AF-E351917E049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEBF53D-954D-46E0-9F3C-88423B6DC7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Anomaly</t>
+  </si>
+  <si>
+    <t>Emission</t>
   </si>
 </sst>
 </file>
@@ -348,1428 +351,1959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B177"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1850</v>
       </c>
       <c r="B2">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <v>196.84800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1851</v>
       </c>
       <c r="B3">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <v>198.779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1852</v>
       </c>
       <c r="B4">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <v>207.595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1853</v>
       </c>
       <c r="B5">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <v>217.23699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1854</v>
       </c>
       <c r="B6">
         <v>-0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <v>255.03899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1855</v>
       </c>
       <c r="B7">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <v>260.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1856</v>
       </c>
       <c r="B8">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <v>278.24599999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1857</v>
       </c>
       <c r="B9">
         <v>-0.28000000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>281.18099999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1858</v>
       </c>
       <c r="B10">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <v>285.548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1859</v>
       </c>
       <c r="B11">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <v>302.572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1860</v>
       </c>
       <c r="B12">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>332.298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1861</v>
       </c>
       <c r="B13">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <v>349.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1862</v>
       </c>
       <c r="B14">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>355.99099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1863</v>
       </c>
       <c r="B15">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <v>379.53500000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1864</v>
       </c>
       <c r="B16">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <v>409.52499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1865</v>
       </c>
       <c r="B17">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <v>434.851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1866</v>
       </c>
       <c r="B18">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <v>449.06700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1867</v>
       </c>
       <c r="B19">
         <v>-0.41</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <v>480.81400000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1868</v>
       </c>
       <c r="B20">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <v>494.49400000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1869</v>
       </c>
       <c r="B21">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <v>524.73099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1870</v>
       </c>
       <c r="B22">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <v>536.12300000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1871</v>
       </c>
       <c r="B23">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>569.77700000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1872</v>
       </c>
       <c r="B24">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <v>630.96100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1873</v>
       </c>
       <c r="B25">
         <v>-0.43</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>670.46699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1874</v>
       </c>
       <c r="B26">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>628.66200000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1875</v>
       </c>
       <c r="B27">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>681.048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1876</v>
       </c>
       <c r="B28">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>690.58299999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1877</v>
       </c>
       <c r="B29">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <v>704.03300000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1878</v>
       </c>
       <c r="B30">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <v>709.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1879</v>
       </c>
       <c r="B31">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31">
+        <v>759.79399999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1880</v>
       </c>
       <c r="B32">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32">
+        <v>858.05600000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1881</v>
       </c>
       <c r="B33">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <v>887.96500000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1882</v>
       </c>
       <c r="B34">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <v>937.88800000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1883</v>
       </c>
       <c r="B35">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35">
+        <v>997.51499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1884</v>
       </c>
       <c r="B36">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <v>1009.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1885</v>
       </c>
       <c r="B37">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37">
+        <v>1017.145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1886</v>
       </c>
       <c r="B38">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38">
+        <v>1032.614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1887</v>
       </c>
       <c r="B39">
         <v>-0.33</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39">
+        <v>1083.7280000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1888</v>
       </c>
       <c r="B40">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40">
+        <v>1200.8019999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1889</v>
       </c>
       <c r="B41">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41">
+        <v>1201.5160000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1890</v>
       </c>
       <c r="B42">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42">
+        <v>1306.5909999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1891</v>
       </c>
       <c r="B43">
         <v>-0.22</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43">
+        <v>1368.9159999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1892</v>
       </c>
       <c r="B44">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44">
+        <v>1379.809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1893</v>
       </c>
       <c r="B45">
         <v>-0.33</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45">
+        <v>1362.5150000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1894</v>
       </c>
       <c r="B46">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <v>1411.5329999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1895</v>
       </c>
       <c r="B47">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47">
+        <v>1495.239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1896</v>
       </c>
       <c r="B48">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <v>1544.6610000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1897</v>
       </c>
       <c r="B49">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <v>1617.4929999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1898</v>
       </c>
       <c r="B50">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50">
+        <v>1705.961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1899</v>
       </c>
       <c r="B51">
         <v>-0.22</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51">
+        <v>1863.135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1900</v>
       </c>
       <c r="B52">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52">
+        <v>1961.491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1901</v>
       </c>
       <c r="B53">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53">
+        <v>2023.9639999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1902</v>
       </c>
       <c r="B54">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54">
+        <v>2074.8000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1903</v>
       </c>
       <c r="B55">
         <v>-0.41</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55">
+        <v>2262.0459999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1904</v>
       </c>
       <c r="B56">
         <v>-0.52</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56">
+        <v>2287.509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1905</v>
       </c>
       <c r="B57">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57">
+        <v>2437.0619999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1906</v>
       </c>
       <c r="B58">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58">
+        <v>2544.4859999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1907</v>
       </c>
       <c r="B59">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59">
+        <v>2900.3249999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1908</v>
       </c>
       <c r="B60">
         <v>-0.49</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60">
+        <v>2785.6869999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1909</v>
       </c>
       <c r="B61">
         <v>-0.53</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61">
+        <v>2901.1669999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1910</v>
       </c>
       <c r="B62">
         <v>-0.37</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62">
+        <v>3043.326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1911</v>
       </c>
       <c r="B63">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63">
+        <v>3090.098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1912</v>
       </c>
       <c r="B64">
         <v>-0.22</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64">
+        <v>3246.4769999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1913</v>
       </c>
       <c r="B65">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65">
+        <v>3516.5329999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1914</v>
       </c>
       <c r="B66">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66">
+        <v>3189.7860000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1915</v>
       </c>
       <c r="B67">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67">
+        <v>3140.277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1916</v>
       </c>
       <c r="B68">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68">
+        <v>3391.973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1917</v>
       </c>
       <c r="B69">
         <v>-0.52</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69">
+        <v>3548.1379999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1918</v>
       </c>
       <c r="B70">
         <v>-0.44</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70">
+        <v>3499.6860000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1919</v>
       </c>
       <c r="B71">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71">
+        <v>3033.8389999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1920</v>
       </c>
       <c r="B72">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72">
+        <v>3537.837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1921</v>
       </c>
       <c r="B73">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73">
+        <v>3106.1840000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1922</v>
       </c>
       <c r="B74">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74">
+        <v>3254.4630000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1923</v>
       </c>
       <c r="B75">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75">
+        <v>3690.6979999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1924</v>
       </c>
       <c r="B76">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76">
+        <v>3702.777</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1925</v>
       </c>
       <c r="B77">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C77">
+        <v>3740.634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1926</v>
       </c>
       <c r="B78">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C78">
+        <v>3677.4070000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1927</v>
       </c>
       <c r="B79">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C79">
+        <v>4012.9470000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1928</v>
       </c>
       <c r="B80">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C80">
+        <v>3996.3119999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1929</v>
       </c>
       <c r="B81">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C81">
+        <v>4288.2110000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1930</v>
       </c>
       <c r="B82">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C82">
+        <v>3958.096</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1931</v>
       </c>
       <c r="B83">
         <v>-0.14000000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C83">
+        <v>3539.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1932</v>
       </c>
       <c r="B84">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C84">
+        <v>3192.5920000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1933</v>
       </c>
       <c r="B85">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C85">
+        <v>3362.683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1934</v>
       </c>
       <c r="B86">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86">
+        <v>3656.1869999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1935</v>
       </c>
       <c r="B87">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87">
+        <v>3835.7420000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1936</v>
       </c>
       <c r="B88">
         <v>-0.14000000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C88">
+        <v>4207.9309999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1937</v>
       </c>
       <c r="B89">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C89">
+        <v>4496.7150000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1938</v>
       </c>
       <c r="B90">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C90">
+        <v>4229.6189999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1939</v>
       </c>
       <c r="B91">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C91">
+        <v>4470.1350000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1940</v>
       </c>
       <c r="B92">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C92">
+        <v>4884.6639999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1941</v>
       </c>
       <c r="B93">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C93">
+        <v>4999.0929999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1942</v>
       </c>
       <c r="B94">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C94">
+        <v>4982.5240000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1943</v>
       </c>
       <c r="B95">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C95">
+        <v>5075.2730000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1944</v>
       </c>
       <c r="B96">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C96">
+        <v>5162.4859999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1945</v>
       </c>
       <c r="B97">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C97">
+        <v>4289.3119999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1946</v>
       </c>
       <c r="B98">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C98">
+        <v>4608.5469999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1947</v>
       </c>
       <c r="B99">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C99">
+        <v>5165.2060000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1948</v>
       </c>
       <c r="B100">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C100">
+        <v>5447.8850000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1949</v>
       </c>
       <c r="B101">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C101">
+        <v>5204.0349999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1950</v>
       </c>
       <c r="B102">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C102">
+        <v>5930.2439999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1951</v>
       </c>
       <c r="B103">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C103">
+        <v>6381.4290000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1952</v>
       </c>
       <c r="B104">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C104">
+        <v>6467.46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1953</v>
       </c>
       <c r="B105">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C105">
+        <v>6650.8850000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1954</v>
       </c>
       <c r="B106">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C106">
+        <v>6789.5290000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1955</v>
       </c>
       <c r="B107">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C107">
+        <v>7443.8959999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1956</v>
       </c>
       <c r="B108">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C108">
+        <v>7926.0129999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1957</v>
       </c>
       <c r="B109">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C109">
+        <v>8185.6450000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1958</v>
       </c>
       <c r="B110">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C110">
+        <v>8417.1880000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1959</v>
       </c>
       <c r="B111">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C111">
+        <v>8854.6890000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1960</v>
       </c>
       <c r="B112">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C112">
+        <v>9387.0110000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1961</v>
       </c>
       <c r="B113">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C113">
+        <v>9415.0419999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1962</v>
       </c>
       <c r="B114">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C114">
+        <v>9747.2870000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1963</v>
       </c>
       <c r="B115">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C115">
+        <v>10266.772000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1964</v>
       </c>
       <c r="B116">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C116">
+        <v>10824.466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1965</v>
       </c>
       <c r="B117">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C117">
+        <v>11310.601000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1966</v>
       </c>
       <c r="B118">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C118">
+        <v>11862.646000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1967</v>
       </c>
       <c r="B119">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C119">
+        <v>12237.369000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1968</v>
       </c>
       <c r="B120">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C120">
+        <v>12905.282999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1969</v>
       </c>
       <c r="B121">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C121">
+        <v>13761.785</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1970</v>
       </c>
       <c r="B122">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C122">
+        <v>14899.124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1971</v>
       </c>
       <c r="B123">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C123">
+        <v>15503.853999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1972</v>
       </c>
       <c r="B124">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C124">
+        <v>16224.597</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1973</v>
       </c>
       <c r="B125">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C125">
+        <v>17085.094000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1974</v>
       </c>
       <c r="B126">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C126">
+        <v>17011.072</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1975</v>
       </c>
       <c r="B127">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C127">
+        <v>17052.752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1976</v>
       </c>
       <c r="B128">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C128">
+        <v>17989.111000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1977</v>
       </c>
       <c r="B129">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C129">
+        <v>18498.634999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1978</v>
       </c>
       <c r="B130">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C130">
+        <v>19069.291000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1979</v>
       </c>
       <c r="B131">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C131">
+        <v>19609.02</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1980</v>
       </c>
       <c r="B132">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C132">
+        <v>19488.523000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1981</v>
       </c>
       <c r="B133">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C133">
+        <v>19022.901999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1982</v>
       </c>
       <c r="B134">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C134">
+        <v>18871.098000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1983</v>
       </c>
       <c r="B135">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C135">
+        <v>18991.91</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1984</v>
       </c>
       <c r="B136">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C136">
+        <v>19647.800999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1985</v>
       </c>
       <c r="B137">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C137">
+        <v>20311.901999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1986</v>
       </c>
       <c r="B138">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C138">
+        <v>20614.963</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>1987</v>
       </c>
       <c r="B139">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C139">
+        <v>21250.074000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1988</v>
       </c>
       <c r="B140">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C140">
+        <v>22085.131000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1989</v>
       </c>
       <c r="B141">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C141">
+        <v>22386.636999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1990</v>
       </c>
       <c r="B142">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C142">
+        <v>22728.988000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1991</v>
       </c>
       <c r="B143">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C143">
+        <v>23186.101999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1992</v>
       </c>
       <c r="B144">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C144">
+        <v>22528.171999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1993</v>
       </c>
       <c r="B145">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C145">
+        <v>22755.787</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1994</v>
       </c>
       <c r="B146">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C146">
+        <v>22992.947</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1995</v>
       </c>
       <c r="B147">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C147">
+        <v>23532.083999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1996</v>
       </c>
       <c r="B148">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C148">
+        <v>24258.168000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1997</v>
       </c>
       <c r="B149">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C149">
+        <v>24401.905999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1998</v>
       </c>
       <c r="B150">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C150">
+        <v>24303.776999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1999</v>
       </c>
       <c r="B151">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C151">
+        <v>24853.728999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>2000</v>
       </c>
       <c r="B152">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C152">
+        <v>25510.553</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>2001</v>
       </c>
       <c r="B153">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C153">
+        <v>25706.293000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>2002</v>
       </c>
       <c r="B154">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C154">
+        <v>26276.868999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>2003</v>
       </c>
       <c r="B155">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C155">
+        <v>27669.49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>2004</v>
       </c>
       <c r="B156">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C156">
+        <v>28632.506000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>2005</v>
       </c>
       <c r="B157">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C157">
+        <v>29614.395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>2006</v>
       </c>
       <c r="B158">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C158">
+        <v>30628.396000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>2007</v>
       </c>
       <c r="B159">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C159">
+        <v>31534.645</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>2008</v>
       </c>
       <c r="B160">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C160">
+        <v>32074.199000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>2009</v>
       </c>
       <c r="B161">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C161">
+        <v>31541.921999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>2010</v>
       </c>
       <c r="B162">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C162">
+        <v>33355.902000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>2011</v>
       </c>
       <c r="B163">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C163">
+        <v>34504.538999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>2012</v>
       </c>
       <c r="B164">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C164">
+        <v>35000.019999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>2013</v>
       </c>
       <c r="B165">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C165">
+        <v>35301.656000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>2014</v>
       </c>
       <c r="B166">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C166">
+        <v>35450.093999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>2015</v>
       </c>
       <c r="B167">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C167">
+        <v>35404.898000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>2016</v>
       </c>
       <c r="B168">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C168">
+        <v>35416.656000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>2017</v>
       </c>
       <c r="B169">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C169">
+        <v>35989.898000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>2018</v>
       </c>
       <c r="B170">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C170">
+        <v>36730.425999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>2019</v>
       </c>
       <c r="B171">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C171">
+        <v>37104.273000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>2020</v>
       </c>
       <c r="B172">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C172">
+        <v>35126.527000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>2021</v>
       </c>
       <c r="B173">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C173">
+        <v>36991.733999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>2022</v>
       </c>
       <c r="B174">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C174">
+        <v>37293.836000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>2023</v>
       </c>
       <c r="B175">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C175">
+        <v>37791.57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>2024</v>
       </c>
       <c r="B176">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C176">
+        <v>37450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>2025</v>
       </c>
       <c r="B177">
         <v>1.22</v>
+      </c>
+      <c r="C177">
+        <v>37425</v>
       </c>
     </row>
   </sheetData>

--- a/04DataViz/A2c/Viz/00GlobalWarmingTemp/GlobalWarmingAbove20thCentury.xlsx
+++ b/04DataViz/A2c/Viz/00GlobalWarmingTemp/GlobalWarmingAbove20thCentury.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIML\04DataViz\A2c\Viz\00GlobalWarmingTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEBF53D-954D-46E0-9F3C-88423B6DC7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DCB1D6-AF10-43C9-94DF-3DD2F94FC004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -354,7 +365,7 @@
   <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
